--- a/INTLINE/data/576/DOS/M700011 - Money Supply End Of Period Monthly.xlsx
+++ b/INTLINE/data/576/DOS/M700011 - Money Supply End Of Period Monthly.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t/>
   </si>
@@ -28,7 +28,7 @@
     <t>Table Title: Money Supply (End Of Period), Monthly</t>
   </si>
   <si>
-    <t>Data last updated: 31/03/2022</t>
+    <t>Data last updated: 31/05/2022</t>
   </si>
   <si>
     <t>Source: MONETARY AUTHORITY OF SINGAPORE</t>
@@ -40,6 +40,12 @@
     <t>Data Series</t>
   </si>
   <si>
+    <t xml:space="preserve">2022 Apr </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022 Mar </t>
+  </si>
+  <si>
     <t xml:space="preserve">2022 Feb </t>
   </si>
   <si>
@@ -142,7 +148,7 @@
     <t>Generated by: SingStat Table Builder</t>
   </si>
   <si>
-    <t>Date generated: 22/04/2022</t>
+    <t>Date generated: 14/06/2022</t>
   </si>
   <si>
     <t>Contact: info@singstat.gov.sg</t>
@@ -205,10 +211,10 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -550,13 +556,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:K43"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="9" width="24" customWidth="1"/>
+    <col min="1" max="11" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -582,6 +588,12 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -615,12 +627,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I10" s="1" t="s">
+    <row r="10" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -648,385 +660,451 @@
       <c r="I11" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" s="5">
-        <v>750826.5</v>
-      </c>
-      <c r="C12" s="5">
-        <v>747527.4</v>
-      </c>
-      <c r="D12" s="5">
-        <v>746327.1</v>
-      </c>
-      <c r="E12" s="5">
-        <v>742107.1</v>
+        <v>774587</v>
+      </c>
+      <c r="C12" s="6">
+        <v>764759.3</v>
+      </c>
+      <c r="D12" s="6">
+        <v>750803.5</v>
+      </c>
+      <c r="E12" s="6">
+        <v>747504.6</v>
       </c>
       <c r="F12" s="5">
-        <v>735323.5</v>
+        <v>746304</v>
       </c>
       <c r="G12" s="5">
-        <v>735317.2</v>
-      </c>
-      <c r="H12" s="5">
-        <v>730203.8</v>
-      </c>
-      <c r="I12" s="5">
-        <v>723186.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>742084</v>
+      </c>
+      <c r="H12" s="6">
+        <v>735300.4</v>
+      </c>
+      <c r="I12" s="6">
+        <v>735294.3</v>
+      </c>
+      <c r="J12" s="6">
+        <v>730180.7</v>
+      </c>
+      <c r="K12" s="6">
+        <v>723163.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" s="5">
-        <v>737688.3</v>
-      </c>
-      <c r="C13" s="5">
-        <v>734285.7</v>
-      </c>
-      <c r="D13" s="5">
-        <v>733264.8</v>
-      </c>
-      <c r="E13" s="5">
-        <v>729384.3</v>
-      </c>
-      <c r="F13" s="5">
-        <v>722283.3</v>
-      </c>
-      <c r="G13" s="5">
-        <v>722293.6</v>
-      </c>
-      <c r="H13" s="5">
-        <v>717319.2</v>
-      </c>
-      <c r="I13" s="5">
-        <v>710229.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>761372</v>
+      </c>
+      <c r="C13" s="6">
+        <v>751610.8</v>
+      </c>
+      <c r="D13" s="6">
+        <v>737665.3</v>
+      </c>
+      <c r="E13" s="6">
+        <v>734262.9</v>
+      </c>
+      <c r="F13" s="6">
+        <v>733241.7</v>
+      </c>
+      <c r="G13" s="6">
+        <v>729361.2</v>
+      </c>
+      <c r="H13" s="6">
+        <v>722260.2</v>
+      </c>
+      <c r="I13" s="6">
+        <v>722270.7</v>
+      </c>
+      <c r="J13" s="6">
+        <v>717296.1</v>
+      </c>
+      <c r="K13" s="6">
+        <v>710206.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14" s="6">
-        <v>288649</v>
-      </c>
-      <c r="C14" s="5">
-        <v>287081.7</v>
+        <v>291430.7</v>
+      </c>
+      <c r="C14" s="6">
+        <v>292648.7</v>
       </c>
       <c r="D14" s="5">
-        <v>286199.4</v>
-      </c>
-      <c r="E14" s="5">
-        <v>285310.8</v>
-      </c>
-      <c r="F14" s="5">
-        <v>280719.6</v>
+        <v>288626</v>
+      </c>
+      <c r="E14" s="6">
+        <v>287058.9</v>
+      </c>
+      <c r="F14" s="6">
+        <v>286176.3</v>
       </c>
       <c r="G14" s="6">
-        <v>279030</v>
-      </c>
-      <c r="H14" s="5">
-        <v>277472.3</v>
-      </c>
-      <c r="I14" s="5">
-        <v>276548.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>285287.7</v>
+      </c>
+      <c r="H14" s="6">
+        <v>280696.5</v>
+      </c>
+      <c r="I14" s="6">
+        <v>279007.1</v>
+      </c>
+      <c r="J14" s="6">
+        <v>277449.2</v>
+      </c>
+      <c r="K14" s="5">
+        <v>276525</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="5">
-        <v>58593.4</v>
+        <v>22</v>
+      </c>
+      <c r="B15" s="6">
+        <v>58972.5</v>
       </c>
       <c r="C15" s="6">
-        <v>59269</v>
-      </c>
-      <c r="D15" s="5">
-        <v>57297.3</v>
+        <v>58537.7</v>
+      </c>
+      <c r="D15" s="6">
+        <v>58570.4</v>
       </c>
       <c r="E15" s="6">
-        <v>56887</v>
-      </c>
-      <c r="F15" s="5">
-        <v>56662.3</v>
-      </c>
-      <c r="G15" s="5">
-        <v>56326.8</v>
-      </c>
-      <c r="H15" s="5">
-        <v>56149.6</v>
-      </c>
-      <c r="I15" s="5">
-        <v>55947.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>59246.2</v>
+      </c>
+      <c r="F15" s="6">
+        <v>57274.2</v>
+      </c>
+      <c r="G15" s="6">
+        <v>56863.9</v>
+      </c>
+      <c r="H15" s="6">
+        <v>56639.2</v>
+      </c>
+      <c r="I15" s="6">
+        <v>56303.9</v>
+      </c>
+      <c r="J15" s="6">
+        <v>56126.5</v>
+      </c>
+      <c r="K15" s="6">
+        <v>55924.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="5">
+        <v>23</v>
+      </c>
+      <c r="B16" s="6">
+        <v>232458.2</v>
+      </c>
+      <c r="C16" s="5">
+        <v>234111</v>
+      </c>
+      <c r="D16" s="6">
         <v>230055.6</v>
       </c>
-      <c r="C16" s="5">
+      <c r="E16" s="6">
         <v>227812.7</v>
       </c>
-      <c r="D16" s="5">
+      <c r="F16" s="6">
         <v>228902.1</v>
       </c>
-      <c r="E16" s="5">
+      <c r="G16" s="6">
         <v>228423.8</v>
       </c>
-      <c r="F16" s="5">
+      <c r="H16" s="6">
         <v>224057.3</v>
       </c>
-      <c r="G16" s="5">
+      <c r="I16" s="6">
         <v>222703.2</v>
       </c>
-      <c r="H16" s="5">
+      <c r="J16" s="6">
         <v>221322.7</v>
       </c>
-      <c r="I16" s="5">
+      <c r="K16" s="6">
         <v>220600.3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="5">
+        <v>24</v>
+      </c>
+      <c r="B17" s="6">
+        <v>469941.3</v>
+      </c>
+      <c r="C17" s="6">
+        <v>458962.1</v>
+      </c>
+      <c r="D17" s="6">
         <v>449039.3</v>
       </c>
-      <c r="C17" s="6">
+      <c r="E17" s="5">
         <v>447204</v>
       </c>
-      <c r="D17" s="5">
+      <c r="F17" s="6">
         <v>447065.4</v>
       </c>
-      <c r="E17" s="5">
+      <c r="G17" s="6">
         <v>444073.5</v>
       </c>
-      <c r="F17" s="5">
+      <c r="H17" s="6">
         <v>441563.7</v>
       </c>
-      <c r="G17" s="5">
+      <c r="I17" s="6">
         <v>443263.6</v>
       </c>
-      <c r="H17" s="5">
+      <c r="J17" s="6">
         <v>439846.9</v>
       </c>
-      <c r="I17" s="5">
+      <c r="K17" s="6">
         <v>433681.1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="5">
+        <v>25</v>
+      </c>
+      <c r="B18" s="6">
+        <v>189529.3</v>
+      </c>
+      <c r="C18" s="6">
+        <v>179527.4</v>
+      </c>
+      <c r="D18" s="6">
         <v>174792.5</v>
       </c>
-      <c r="C18" s="5">
+      <c r="E18" s="6">
         <v>175664.5</v>
       </c>
-      <c r="D18" s="5">
+      <c r="F18" s="6">
         <v>176350.9</v>
       </c>
-      <c r="E18" s="5">
+      <c r="G18" s="6">
         <v>178038.7</v>
       </c>
-      <c r="F18" s="5">
+      <c r="H18" s="6">
         <v>175937.3</v>
       </c>
-      <c r="G18" s="6">
+      <c r="I18" s="5">
         <v>179416</v>
       </c>
-      <c r="H18" s="5">
+      <c r="J18" s="6">
         <v>177284.6</v>
       </c>
-      <c r="I18" s="5">
+      <c r="K18" s="6">
         <v>173107.6</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="5">
+        <v>26</v>
+      </c>
+      <c r="B19" s="6">
+        <v>7.6</v>
+      </c>
+      <c r="C19" s="6">
+        <v>7.6</v>
+      </c>
+      <c r="D19" s="6">
         <v>25.7</v>
       </c>
-      <c r="C19" s="5">
+      <c r="E19" s="6">
         <v>25.7</v>
       </c>
-      <c r="D19" s="5">
+      <c r="F19" s="6">
         <v>57.5</v>
       </c>
-      <c r="E19" s="5">
+      <c r="G19" s="6">
         <v>57.5</v>
       </c>
-      <c r="F19" s="6">
+      <c r="H19" s="5">
         <v>0</v>
       </c>
-      <c r="G19" s="6">
+      <c r="I19" s="5">
         <v>15</v>
       </c>
-      <c r="H19" s="6">
+      <c r="J19" s="5">
         <v>15</v>
       </c>
-      <c r="I19" s="6">
+      <c r="K19" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="5">
+        <v>27</v>
+      </c>
+      <c r="B20" s="6">
+        <v>280404.4</v>
+      </c>
+      <c r="C20" s="6">
+        <v>279427.1</v>
+      </c>
+      <c r="D20" s="6">
         <v>274221.1</v>
       </c>
-      <c r="C20" s="5">
+      <c r="E20" s="6">
         <v>271513.8</v>
       </c>
-      <c r="D20" s="6">
+      <c r="F20" s="5">
         <v>270657</v>
       </c>
-      <c r="E20" s="5">
+      <c r="G20" s="6">
         <v>265977.3</v>
       </c>
-      <c r="F20" s="5">
+      <c r="H20" s="6">
         <v>265626.4</v>
       </c>
-      <c r="G20" s="5">
+      <c r="I20" s="6">
         <v>263832.6</v>
       </c>
-      <c r="H20" s="5">
+      <c r="J20" s="6">
         <v>262547.3</v>
       </c>
-      <c r="I20" s="5">
+      <c r="K20" s="6">
         <v>260558.5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21" s="5">
+        <v>13215</v>
+      </c>
+      <c r="C21" s="6">
+        <v>13148.5</v>
+      </c>
+      <c r="D21" s="6">
         <v>13138.2</v>
       </c>
-      <c r="C21" s="5">
+      <c r="E21" s="6">
         <v>13241.7</v>
       </c>
-      <c r="D21" s="5">
+      <c r="F21" s="6">
         <v>13062.3</v>
       </c>
-      <c r="E21" s="5">
+      <c r="G21" s="6">
         <v>12722.8</v>
       </c>
-      <c r="F21" s="5">
+      <c r="H21" s="6">
         <v>13040.2</v>
       </c>
-      <c r="G21" s="5">
+      <c r="I21" s="6">
         <v>13023.6</v>
       </c>
-      <c r="H21" s="5">
+      <c r="J21" s="6">
         <v>12884.6</v>
       </c>
-      <c r="I21" s="6">
+      <c r="K21" s="5">
         <v>12957</v>
       </c>
     </row>
     <row r="23" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/INTLINE/data/576/DOS/M700011 - Money Supply End Of Period Monthly.xlsx
+++ b/INTLINE/data/576/DOS/M700011 - Money Supply End Of Period Monthly.xlsx
@@ -148,7 +148,7 @@
     <t>Generated by: SingStat Table Builder</t>
   </si>
   <si>
-    <t>Date generated: 14/06/2022</t>
+    <t>Date generated: 27/06/2022</t>
   </si>
   <si>
     <t>Contact: info@singstat.gov.sg</t>
